--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Igf1r</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H2">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I2">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J2">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N2">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O2">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P2">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q2">
-        <v>2.971249739614775</v>
+        <v>3.895885079944499</v>
       </c>
       <c r="R2">
-        <v>2.971249739614775</v>
+        <v>15.583540319778</v>
       </c>
       <c r="S2">
-        <v>0.001964688103068227</v>
+        <v>0.00174585698382252</v>
       </c>
       <c r="T2">
-        <v>0.001964688103068227</v>
+        <v>0.001286266090480046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H3">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I3">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J3">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N3">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P3">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q3">
-        <v>2.137748758519148</v>
+        <v>2.9793333668825</v>
       </c>
       <c r="R3">
-        <v>2.137748758519148</v>
+        <v>17.876000201295</v>
       </c>
       <c r="S3">
-        <v>0.001413549826261315</v>
+        <v>0.001335124075523649</v>
       </c>
       <c r="T3">
-        <v>0.001413549826261315</v>
+        <v>0.001475485828028312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H4">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I4">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J4">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N4">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O4">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P4">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q4">
-        <v>0.8771081881095341</v>
+        <v>1.1502705973945</v>
       </c>
       <c r="R4">
-        <v>0.8771081881095341</v>
+        <v>6.901623584367</v>
       </c>
       <c r="S4">
-        <v>0.0005799727970715615</v>
+        <v>0.0005154689921642913</v>
       </c>
       <c r="T4">
-        <v>0.0005799727970715615</v>
+        <v>0.0005696603084834248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H5">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I5">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J5">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N5">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O5">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P5">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q5">
-        <v>0.642823248488483</v>
+        <v>0.8352942566324999</v>
       </c>
       <c r="R5">
-        <v>0.642823248488483</v>
+        <v>5.011765539794999</v>
       </c>
       <c r="S5">
-        <v>0.0004250558853544014</v>
+        <v>0.0003743191294311652</v>
       </c>
       <c r="T5">
-        <v>0.0004250558853544014</v>
+        <v>0.0004136713439303096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H6">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I6">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J6">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N6">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O6">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P6">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q6">
-        <v>2.26974821426068</v>
+        <v>3.0162632042925</v>
       </c>
       <c r="R6">
-        <v>2.26974821426068</v>
+        <v>18.097579225755</v>
       </c>
       <c r="S6">
-        <v>0.001500832210117911</v>
+        <v>0.001351673386714983</v>
       </c>
       <c r="T6">
-        <v>0.001500832210117911</v>
+        <v>0.001493774970269169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.260995668163286</v>
+        <v>0.3375465</v>
       </c>
       <c r="H7">
-        <v>0.260995668163286</v>
+        <v>0.6750929999999999</v>
       </c>
       <c r="I7">
-        <v>0.008487073451462625</v>
+        <v>0.007757102082074438</v>
       </c>
       <c r="J7">
-        <v>0.008487073451462625</v>
+        <v>0.007032602246591258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N7">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O7">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P7">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q7">
-        <v>3.936547321843392</v>
+        <v>5.432949986658</v>
       </c>
       <c r="R7">
-        <v>3.936547321843392</v>
+        <v>21.731799946632</v>
       </c>
       <c r="S7">
-        <v>0.002602974629589209</v>
+        <v>0.002434659514417829</v>
       </c>
       <c r="T7">
-        <v>0.002602974629589209</v>
+        <v>0.001793743705399995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H8">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I8">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J8">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N8">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O8">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P8">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q8">
-        <v>83.02227886065177</v>
+        <v>86.796060436091</v>
       </c>
       <c r="R8">
-        <v>83.02227886065177</v>
+        <v>520.7763626165461</v>
       </c>
       <c r="S8">
-        <v>0.05489706280572799</v>
+        <v>0.03889578495544067</v>
       </c>
       <c r="T8">
-        <v>0.05489706280572799</v>
+        <v>0.04298490344373468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H9">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I9">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J9">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N9">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P9">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q9">
-        <v>59.73270142778349</v>
+        <v>66.37629028186835</v>
       </c>
       <c r="R9">
-        <v>59.73270142778349</v>
+        <v>597.3866125368151</v>
       </c>
       <c r="S9">
-        <v>0.03949722781448456</v>
+        <v>0.02974510478899486</v>
       </c>
       <c r="T9">
-        <v>0.03949722781448456</v>
+        <v>0.04930831677816031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H10">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I10">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J10">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N10">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O10">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P10">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q10">
-        <v>24.50804441421065</v>
+        <v>25.62677138585767</v>
       </c>
       <c r="R10">
-        <v>24.50804441421065</v>
+        <v>230.640942472719</v>
       </c>
       <c r="S10">
-        <v>0.01620552545553109</v>
+        <v>0.0114840856130849</v>
       </c>
       <c r="T10">
-        <v>0.01620552545553109</v>
+        <v>0.01903711334468083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H11">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I11">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J11">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N11">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O11">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P11">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q11">
-        <v>17.96168470208773</v>
+        <v>18.609442859035</v>
       </c>
       <c r="R11">
-        <v>17.96168470208773</v>
+        <v>167.484985731315</v>
       </c>
       <c r="S11">
-        <v>0.01187685699211188</v>
+        <v>0.00833942098234459</v>
       </c>
       <c r="T11">
-        <v>0.01187685699211188</v>
+        <v>0.01382421794983965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H12">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I12">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J12">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N12">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O12">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P12">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q12">
-        <v>63.42101327781617</v>
+        <v>67.19904668611501</v>
       </c>
       <c r="R12">
-        <v>63.42101327781617</v>
+        <v>604.7914201750351</v>
       </c>
       <c r="S12">
-        <v>0.04193606098140115</v>
+        <v>0.03011380534993625</v>
       </c>
       <c r="T12">
-        <v>0.04193606098140115</v>
+        <v>0.04991950992016296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.29270746069423</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H13">
-        <v>7.29270746069423</v>
+        <v>22.560501</v>
       </c>
       <c r="I13">
-        <v>0.2371447170541505</v>
+        <v>0.1728197539990712</v>
       </c>
       <c r="J13">
-        <v>0.2371447170541505</v>
+        <v>0.2350180345771981</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N13">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O13">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P13">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q13">
-        <v>109.9945000061175</v>
+        <v>121.040186173804</v>
       </c>
       <c r="R13">
-        <v>109.9945000061175</v>
+        <v>726.241117042824</v>
       </c>
       <c r="S13">
-        <v>0.07273198300489381</v>
+        <v>0.05424155230926993</v>
       </c>
       <c r="T13">
-        <v>0.07273198300489381</v>
+        <v>0.0599439731406196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H14">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I14">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J14">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N14">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O14">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P14">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q14">
-        <v>12.87685078763007</v>
+        <v>1.058003552848666</v>
       </c>
       <c r="R14">
-        <v>12.87685078763007</v>
+        <v>6.348021317091999</v>
       </c>
       <c r="S14">
-        <v>0.008514597480695635</v>
+        <v>0.000474121503521402</v>
       </c>
       <c r="T14">
-        <v>0.008514597480695635</v>
+        <v>0.000523965953452626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H15">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I15">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J15">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N15">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P15">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q15">
-        <v>9.264610583848617</v>
+        <v>0.8090960648477777</v>
       </c>
       <c r="R15">
-        <v>9.264610583848617</v>
+        <v>7.281864583629999</v>
       </c>
       <c r="S15">
-        <v>0.006126065389578215</v>
+        <v>0.0003625789740743418</v>
       </c>
       <c r="T15">
-        <v>0.006126065389578215</v>
+        <v>0.0006010454169713536</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H16">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I16">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J16">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N16">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O16">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P16">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q16">
-        <v>3.80122583178059</v>
+        <v>0.3123784079375555</v>
       </c>
       <c r="R16">
-        <v>3.80122583178059</v>
+        <v>2.811405671438</v>
       </c>
       <c r="S16">
-        <v>0.002513495607320848</v>
+        <v>0.0001399856550955838</v>
       </c>
       <c r="T16">
-        <v>0.002513495607320848</v>
+        <v>0.000232053545442715</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H17">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I17">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J17">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N17">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O17">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P17">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q17">
-        <v>2.785877923098794</v>
+        <v>0.2268404414033333</v>
       </c>
       <c r="R17">
-        <v>2.785877923098794</v>
+        <v>2.04156397263</v>
       </c>
       <c r="S17">
-        <v>0.001842114157937545</v>
+        <v>0.0001016536578237658</v>
       </c>
       <c r="T17">
-        <v>0.001842114157937545</v>
+        <v>0.0001685107784016765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H18">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I18">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J18">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N18">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O18">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P18">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q18">
-        <v>9.836671987159823</v>
+        <v>0.8191250822299999</v>
       </c>
       <c r="R18">
-        <v>9.836671987159823</v>
+        <v>7.37212574007</v>
       </c>
       <c r="S18">
-        <v>0.006504331214333746</v>
+        <v>0.0003670732621958691</v>
       </c>
       <c r="T18">
-        <v>0.006504331214333746</v>
+        <v>0.0006084955767190033</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.13110730153305</v>
+        <v>0.09166733333333332</v>
       </c>
       <c r="H19">
-        <v>1.13110730153305</v>
+        <v>0.275002</v>
       </c>
       <c r="I19">
-        <v>0.03678141793369072</v>
+        <v>0.002106592313231544</v>
       </c>
       <c r="J19">
-        <v>0.03678141793369072</v>
+        <v>0.002864760385631445</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.082807119161</v>
+        <v>16.095412</v>
       </c>
       <c r="N19">
-        <v>15.082807119161</v>
+        <v>32.190824</v>
       </c>
       <c r="O19">
-        <v>0.3066987277152201</v>
+        <v>0.3138619923597475</v>
       </c>
       <c r="P19">
-        <v>0.3066987277152201</v>
+        <v>0.2550611626399649</v>
       </c>
       <c r="Q19">
-        <v>17.06027326009767</v>
+        <v>1.475423496941333</v>
       </c>
       <c r="R19">
-        <v>17.06027326009767</v>
+        <v>8.852540981648</v>
       </c>
       <c r="S19">
-        <v>0.01128081408382472</v>
+        <v>0.0006611792605205818</v>
       </c>
       <c r="T19">
-        <v>0.01128081408382472</v>
+        <v>0.0007306891146440706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H20">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I20">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J20">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.3842875650943</v>
+        <v>11.541773</v>
       </c>
       <c r="N20">
-        <v>11.3842875650943</v>
+        <v>23.083546</v>
       </c>
       <c r="O20">
-        <v>0.2314918227471734</v>
+        <v>0.2250656192673999</v>
       </c>
       <c r="P20">
-        <v>0.2314918227471734</v>
+        <v>0.1829004464319742</v>
       </c>
       <c r="Q20">
-        <v>251.22082184976</v>
+        <v>15.62651803517233</v>
       </c>
       <c r="R20">
-        <v>251.22082184976</v>
+        <v>93.75910821103399</v>
       </c>
       <c r="S20">
-        <v>0.1661154743576815</v>
+        <v>0.007002687472732855</v>
       </c>
       <c r="T20">
-        <v>0.1661154743576815</v>
+        <v>0.007738880837780021</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H21">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I21">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J21">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.190744212588671</v>
+        <v>8.826438333333334</v>
       </c>
       <c r="N21">
-        <v>8.190744212588671</v>
+        <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1665532688441278</v>
+        <v>0.1721163472386074</v>
       </c>
       <c r="P21">
-        <v>0.1665532688441278</v>
+        <v>0.20980652343071</v>
       </c>
       <c r="Q21">
-        <v>180.7478492511751</v>
+        <v>11.95020018173722</v>
       </c>
       <c r="R21">
-        <v>180.7478492511751</v>
+        <v>107.551801635635</v>
       </c>
       <c r="S21">
-        <v>0.1195164258138037</v>
+        <v>0.005355224812139556</v>
       </c>
       <c r="T21">
-        <v>0.1195164258138037</v>
+        <v>0.008877330348250702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H22">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I22">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J22">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.36062354705746</v>
+        <v>3.407739666666667</v>
       </c>
       <c r="N22">
-        <v>3.36062354705746</v>
+        <v>10.223219</v>
       </c>
       <c r="O22">
-        <v>0.06833601716638985</v>
+        <v>0.06645123226565072</v>
       </c>
       <c r="P22">
-        <v>0.06833601716638985</v>
+        <v>0.0810027765695895</v>
       </c>
       <c r="Q22">
-        <v>74.15998626106715</v>
+        <v>4.613771676183444</v>
       </c>
       <c r="R22">
-        <v>74.15998626106715</v>
+        <v>41.523945085651</v>
       </c>
       <c r="S22">
-        <v>0.04903702330646634</v>
+        <v>0.002067562399130663</v>
       </c>
       <c r="T22">
-        <v>0.04903702330646634</v>
+        <v>0.003427388219276563</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H23">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I23">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J23">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.46296520173015</v>
+        <v>2.474605</v>
       </c>
       <c r="N23">
-        <v>2.46296520173015</v>
+        <v>7.423815</v>
       </c>
       <c r="O23">
-        <v>0.0500827390955535</v>
+        <v>0.0482550217169584</v>
       </c>
       <c r="P23">
-        <v>0.0500827390955535</v>
+        <v>0.05882194519543864</v>
       </c>
       <c r="Q23">
-        <v>54.35106401064307</v>
+        <v>3.350391630681666</v>
       </c>
       <c r="R23">
-        <v>54.35106401064307</v>
+        <v>30.153524676135</v>
       </c>
       <c r="S23">
-        <v>0.03593871206014968</v>
+        <v>0.00150140584409883</v>
       </c>
       <c r="T23">
-        <v>0.03593871206014968</v>
+        <v>0.002488873228000754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.0673292389447</v>
+        <v>1.353909666666667</v>
       </c>
       <c r="H24">
-        <v>22.0673292389447</v>
+        <v>4.061729</v>
       </c>
       <c r="I24">
-        <v>0.7175867915606962</v>
+        <v>0.03111398131588006</v>
       </c>
       <c r="J24">
-        <v>0.7175867915606962</v>
+        <v>0.04231198440873312</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.696497647771929</v>
+        <v>8.935845</v>
       </c>
       <c r="N24">
-        <v>8.696497647771929</v>
+        <v>26.807535</v>
       </c>
       <c r="O24">
-        <v>0.1768374244315352</v>
+        <v>0.174249787151636</v>
       </c>
       <c r="P24">
-        <v>0.1768374244315352</v>
+        <v>0.2124071457323227</v>
       </c>
       <c r="Q24">
-        <v>191.9084768190913</v>
+        <v>12.098326925335</v>
       </c>
       <c r="R24">
-        <v>191.9084768190913</v>
+        <v>108.884942328015</v>
       </c>
       <c r="S24">
-        <v>0.1268962000256824</v>
+        <v>0.005421604621732079</v>
       </c>
       <c r="T24">
-        <v>0.1268962000256824</v>
+        <v>0.008987367838529542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.353909666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.061729</v>
+      </c>
+      <c r="I25">
+        <v>0.03111398131588006</v>
+      </c>
+      <c r="J25">
+        <v>0.04231198440873312</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.095412</v>
+      </c>
+      <c r="N25">
+        <v>32.190824</v>
+      </c>
+      <c r="O25">
+        <v>0.3138619923597475</v>
+      </c>
+      <c r="P25">
+        <v>0.2550611626399649</v>
+      </c>
+      <c r="Q25">
+        <v>21.79173389578266</v>
+      </c>
+      <c r="R25">
+        <v>130.750403374696</v>
+      </c>
+      <c r="S25">
+        <v>0.009765496166046073</v>
+      </c>
+      <c r="T25">
+        <v>0.01079214393689554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.21122</v>
+      </c>
+      <c r="H26">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J26">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11.541773</v>
+      </c>
+      <c r="N26">
+        <v>23.083546</v>
+      </c>
+      <c r="O26">
+        <v>0.2250656192673999</v>
+      </c>
+      <c r="P26">
+        <v>0.1829004464319742</v>
+      </c>
+      <c r="Q26">
+        <v>394.8581352930599</v>
+      </c>
+      <c r="R26">
+        <v>1579.43254117224</v>
+      </c>
+      <c r="S26">
+        <v>0.1769471683518825</v>
+      </c>
+      <c r="T26">
+        <v>0.1303664301065268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>34.21122</v>
+      </c>
+      <c r="H27">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J27">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.826438333333334</v>
+      </c>
+      <c r="N27">
+        <v>26.479315</v>
+      </c>
+      <c r="O27">
+        <v>0.1721163472386074</v>
+      </c>
+      <c r="P27">
+        <v>0.20980652343071</v>
+      </c>
+      <c r="Q27">
+        <v>301.9632236381</v>
+      </c>
+      <c r="R27">
+        <v>1811.7793418286</v>
+      </c>
+      <c r="S27">
+        <v>0.135318314587875</v>
+      </c>
+      <c r="T27">
+        <v>0.1495443450592993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>34.21122</v>
+      </c>
+      <c r="H28">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J28">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.407739666666667</v>
+      </c>
+      <c r="N28">
+        <v>10.223219</v>
+      </c>
+      <c r="O28">
+        <v>0.06645123226565072</v>
+      </c>
+      <c r="P28">
+        <v>0.0810027765695895</v>
+      </c>
+      <c r="Q28">
+        <v>116.58293143906</v>
+      </c>
+      <c r="R28">
+        <v>699.49758863436</v>
+      </c>
+      <c r="S28">
+        <v>0.05224412960617528</v>
+      </c>
+      <c r="T28">
+        <v>0.05773656115170595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>34.21122</v>
+      </c>
+      <c r="H29">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J29">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.474605</v>
+      </c>
+      <c r="N29">
+        <v>7.423815</v>
+      </c>
+      <c r="O29">
+        <v>0.0482550217169584</v>
+      </c>
+      <c r="P29">
+        <v>0.05882194519543864</v>
+      </c>
+      <c r="Q29">
+        <v>84.65925606809999</v>
+      </c>
+      <c r="R29">
+        <v>507.9555364086</v>
+      </c>
+      <c r="S29">
+        <v>0.03793822210326005</v>
+      </c>
+      <c r="T29">
+        <v>0.04192667189526625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>22.0673292389447</v>
-      </c>
-      <c r="H25">
-        <v>22.0673292389447</v>
-      </c>
-      <c r="I25">
-        <v>0.7175867915606962</v>
-      </c>
-      <c r="J25">
-        <v>0.7175867915606962</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.082807119161</v>
-      </c>
-      <c r="N25">
-        <v>15.082807119161</v>
-      </c>
-      <c r="O25">
-        <v>0.3066987277152201</v>
-      </c>
-      <c r="P25">
-        <v>0.3066987277152201</v>
-      </c>
-      <c r="Q25">
-        <v>332.8372705460249</v>
-      </c>
-      <c r="R25">
-        <v>332.8372705460249</v>
-      </c>
-      <c r="S25">
-        <v>0.2200829559969123</v>
-      </c>
-      <c r="T25">
-        <v>0.2200829559969123</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>34.21122</v>
+      </c>
+      <c r="H30">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J30">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.935845</v>
+      </c>
+      <c r="N30">
+        <v>26.807535</v>
+      </c>
+      <c r="O30">
+        <v>0.174249787151636</v>
+      </c>
+      <c r="P30">
+        <v>0.2124071457323227</v>
+      </c>
+      <c r="Q30">
+        <v>305.7061591809</v>
+      </c>
+      <c r="R30">
+        <v>1834.2369550854</v>
+      </c>
+      <c r="S30">
+        <v>0.1369956305310568</v>
+      </c>
+      <c r="T30">
+        <v>0.151397997426642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>34.21122</v>
+      </c>
+      <c r="H31">
+        <v>68.42243999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.7862025702897427</v>
+      </c>
+      <c r="J31">
+        <v>0.712772618381846</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.095412</v>
+      </c>
+      <c r="N31">
+        <v>32.190824</v>
+      </c>
+      <c r="O31">
+        <v>0.3138619923597475</v>
+      </c>
+      <c r="P31">
+        <v>0.2550611626399649</v>
+      </c>
+      <c r="Q31">
+        <v>550.64368092264</v>
+      </c>
+      <c r="R31">
+        <v>2202.57472369056</v>
+      </c>
+      <c r="S31">
+        <v>0.2467591051094931</v>
+      </c>
+      <c r="T31">
+        <v>0.1818006127424056</v>
       </c>
     </row>
   </sheetData>
